--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/WEST_VIRGINIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/WEST_VIRGINIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C13">
@@ -644,7 +644,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C31">
@@ -815,7 +815,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C33">
@@ -885,7 +885,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C38">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C44">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C47">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C50">
@@ -1090,7 +1090,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C53">
@@ -1103,7 +1103,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C54">
@@ -1295,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C68">
@@ -1365,7 +1365,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C73">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C77">
@@ -1440,7 +1440,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C78">
@@ -1453,7 +1453,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C79">
@@ -1466,7 +1466,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C80">
@@ -1479,7 +1479,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C81">
@@ -1492,7 +1492,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C82">
@@ -1609,7 +1609,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C91">
@@ -1679,7 +1679,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C96">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C99">
@@ -2078,7 +2078,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C124">
@@ -2169,7 +2169,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C131">
@@ -2182,7 +2182,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C132">
@@ -2195,7 +2195,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C133">
@@ -2338,76 +2338,6 @@
       </c>
       <c r="D143">
         <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/WEST_VIRGINIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/WEST_VIRGINIA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -572,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -585,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Antonio La Isla</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>León</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Huehuetlán</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tampamolón Corona</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1944,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1975,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2006,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>González</t>
@@ -2019,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Mainero</t>
@@ -2032,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -2045,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2076,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -2089,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2102,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2115,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -2128,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -2154,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2167,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2180,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2193,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Nanchital De Lázaro Cárdenas Del Río</t>
@@ -2206,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2219,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2232,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -2245,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2258,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2271,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2284,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2315,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
